--- a/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -110,7 +110,10 @@
     <t>3145678956</t>
   </si>
   <si>
-    <t>Robot9</t>
+    <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>User01</t>
   </si>
 </sst>
 </file>
@@ -118,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,6 +149,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -154,9 +165,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,6 +247,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -176,115 +270,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -559,7 +577,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,45 +593,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +614,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -643,152 +631,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -818,55 +821,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1310,7 +1313,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1377,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>19</v>
@@ -1404,7 +1407,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inscribir" sheetId="1" r:id="rId1"/>
     <sheet name="Eliminar" sheetId="2" r:id="rId2"/>
+    <sheet name="Generar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>User01</t>
+  </si>
+  <si>
+    <t>nombreUsuario</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -121,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -149,21 +156,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,7 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,8 +193,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -195,37 +263,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,55 +286,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,43 +321,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,139 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,26 +556,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,26 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -646,18 +620,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,131 +674,131 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1423,4 +1430,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:17">
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2">
+      <formula1>Generar!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\clavedinamica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110CA2D-11B4-4D58-B5B0-D2BBDEB9965C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E6A11B-DBF8-4EBE-9BD3-D6CD3AD52AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -865,6 +865,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\clavedinamica\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E6A11B-DBF8-4EBE-9BD3-D6CD3AD52AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Inscribir" sheetId="1" r:id="rId1"/>
-    <sheet name="Eliminar" sheetId="2" r:id="rId2"/>
-    <sheet name="Generar" sheetId="3" r:id="rId3"/>
+    <sheet name="Eliminar" sheetId="2" r:id="rId1"/>
+    <sheet name="Generar" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -63,22 +56,10 @@
     <t>nombrePersonalizado</t>
   </si>
   <si>
-    <t>correo</t>
-  </si>
-  <si>
-    <t>tipoCorreo</t>
-  </si>
-  <si>
-    <t>numeroCelular</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>67652517</t>
-  </si>
-  <si>
-    <t>testing10</t>
+    <t>usercheques01</t>
   </si>
   <si>
     <t>1234</t>
@@ -105,41 +86,32 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Laboral</t>
-  </si>
-  <si>
-    <t>3145678956</t>
+    <t>chequesuno</t>
   </si>
   <si>
     <t>nombreUsuario</t>
   </si>
   <si>
-    <t>Testingdiez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87576483    </t>
-  </si>
-  <si>
-    <t>autotest13</t>
-  </si>
-  <si>
-    <t>Autotesttrece</t>
-  </si>
-  <si>
-    <t>jrua@todo1.net</t>
-  </si>
-  <si>
-    <t>usercheques01</t>
-  </si>
-  <si>
-    <t>Usercheques</t>
+    <t>333333302</t>
+  </si>
+  <si>
+    <t>autotest30</t>
+  </si>
+  <si>
+    <t>testtreinta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,10 +134,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,14 +166,119 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +297,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -262,55 +542,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -568,31 +1123,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" style="1" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="10.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,183 +1180,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" s="9" customFormat="1">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{6C043E89-4C10-41BF-B57E-D01944177384}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Eliminar!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1"/>
@@ -813,45 +1188,45 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:17">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>664775789</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20">
-        <v>664775789</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
@@ -860,32 +1235,34 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2">
       <formula1>$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,79 +1299,80 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>29</v>
+      <c r="M1" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:17">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>30</v>
+      <c r="M2" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="21"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="22"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J3">
       <formula1>$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
@@ -98,7 +98,7 @@
     <t>autotest30</t>
   </si>
   <si>
-    <t>testtreinta</t>
+    <t>Autotesttreinta</t>
   </si>
 </sst>
 </file>
@@ -106,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -134,9 +134,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,14 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -166,88 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,9 +265,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,22 +543,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,17 +597,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,41 +630,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,129 +661,129 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="2"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -98,18 +98,31 @@
   </si>
   <si>
     <t>Recaudosnatik</t>
+  </si>
+  <si>
+    <t>testing10</t>
+  </si>
+  <si>
+    <t>Testingdiez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,13 +228,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -229,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -237,7 +250,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -636,7 +650,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -645,6 +659,7 @@
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
@@ -703,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>14</v>
@@ -729,8 +744,8 @@
       <c r="L2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>25</v>
+      <c r="M2" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/clavedinamica/GestionarClaveDinamica.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\clavedinamica\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335DAB6-39BA-49F5-84F8-AC06C1FDC9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Eliminar" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Generar" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Eliminar" sheetId="1" r:id="rId1"/>
+    <sheet name="Generar" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,120 +28,100 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeroDocumento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipoDocumento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segundaClave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orientacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigoError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codigoTransaccion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resultadoEsperado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primeraPregunta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validarClave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombrePersonalizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333333302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recaudosnatik66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acierto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO ERROR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recaudosnatik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombreUsuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testingdiez</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>numeroDocumento</t>
+  </si>
+  <si>
+    <t>tipoDocumento</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>clave</t>
+  </si>
+  <si>
+    <t>segundaClave</t>
+  </si>
+  <si>
+    <t>orientacion</t>
+  </si>
+  <si>
+    <t>codigoError</t>
+  </si>
+  <si>
+    <t>codigoTransaccion</t>
+  </si>
+  <si>
+    <t>resultadoEsperado</t>
+  </si>
+  <si>
+    <t>primeraPregunta</t>
+  </si>
+  <si>
+    <t>validarClave</t>
+  </si>
+  <si>
+    <t>nombrePersonalizado</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>333333302</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Acierto</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>NO ERROR</t>
+  </si>
+  <si>
+    <t>bolp</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>recaudosnatik</t>
+  </si>
+  <si>
+    <t>nombreUsuario</t>
+  </si>
+  <si>
+    <t>testingdiez</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>invictus10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -146,11 +131,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Mic Shell Dlg"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -182,138 +166,94 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -372,32 +312,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.75"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -449,74 +697,66 @@
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:J2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.75"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,10 +794,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -571,34 +811,34 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -614,17 +854,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:J3" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>